--- a/pvmismatch/contrib/xlsio/example_workflow/ExcelLayoutFromPVMM.xlsx
+++ b/pvmismatch/contrib/xlsio/example_workflow/ExcelLayoutFromPVMM.xlsx
@@ -10,13 +10,14 @@
     <sheet name="CellIndexes" sheetId="1" r:id="rId1"/>
     <sheet name="Irradiance" sheetId="2" r:id="rId2"/>
     <sheet name="CellTemp" sheetId="3" r:id="rId3"/>
+    <sheet name="ActiveBpd" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="79">
   <si>
     <t>0_0_0</t>
   </si>
@@ -64,6 +65,9 @@
   </si>
   <si>
     <t>0_9</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
   <si>
     <t>1_0</t>
@@ -633,40 +637,40 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1339,45 +1343,45 @@
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1398,7 +1402,7 @@
         <v>59</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1419,7 +1423,7 @@
         <v>59</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1442,7 +1446,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1463,7 +1467,7 @@
         <v>58</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1484,7 +1488,7 @@
         <v>58</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1507,7 +1511,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1528,7 +1532,7 @@
         <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1549,7 +1553,7 @@
         <v>57</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -1572,7 +1576,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1593,7 +1597,7 @@
         <v>56</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1614,7 +1618,7 @@
         <v>56</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P16">
         <v>3</v>
@@ -1637,7 +1641,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1658,7 +1662,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -1679,7 +1683,7 @@
         <v>55</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17">
         <v>4</v>
@@ -1702,7 +1706,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1723,7 +1727,7 @@
         <v>54</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1744,7 +1748,7 @@
         <v>54</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P18">
         <v>5</v>
@@ -1767,7 +1771,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1788,7 +1792,7 @@
         <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -1809,7 +1813,7 @@
         <v>53</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P19">
         <v>6</v>
@@ -1832,7 +1836,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -1853,7 +1857,7 @@
         <v>52</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1874,7 +1878,7 @@
         <v>52</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20">
         <v>7</v>
@@ -1897,7 +1901,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1918,7 +1922,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -1939,7 +1943,7 @@
         <v>51</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P21">
         <v>8</v>
@@ -1962,7 +1966,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -1983,7 +1987,7 @@
         <v>50</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -2004,7 +2008,7 @@
         <v>50</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P22">
         <v>9</v>
@@ -2045,45 +2049,45 @@
         <v>5</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2104,7 +2108,7 @@
         <v>59</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2125,7 +2129,7 @@
         <v>59</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2148,7 +2152,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2169,7 +2173,7 @@
         <v>58</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2190,7 +2194,7 @@
         <v>58</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -2213,7 +2217,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2234,7 +2238,7 @@
         <v>57</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2255,7 +2259,7 @@
         <v>57</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -2278,7 +2282,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -2299,7 +2303,7 @@
         <v>56</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -2320,7 +2324,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P27">
         <v>3</v>
@@ -2343,7 +2347,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2364,7 +2368,7 @@
         <v>55</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -2385,7 +2389,7 @@
         <v>55</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P28">
         <v>4</v>
@@ -2408,7 +2412,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2429,7 +2433,7 @@
         <v>54</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -2450,7 +2454,7 @@
         <v>54</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P29">
         <v>5</v>
@@ -2473,7 +2477,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2494,7 +2498,7 @@
         <v>53</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I30">
         <v>6</v>
@@ -2515,7 +2519,7 @@
         <v>53</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P30">
         <v>6</v>
@@ -2538,7 +2542,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2559,7 +2563,7 @@
         <v>52</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I31">
         <v>7</v>
@@ -2580,7 +2584,7 @@
         <v>52</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P31">
         <v>7</v>
@@ -2603,7 +2607,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -2624,7 +2628,7 @@
         <v>51</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I32">
         <v>8</v>
@@ -2645,7 +2649,7 @@
         <v>51</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P32">
         <v>8</v>
@@ -2668,7 +2672,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -2689,7 +2693,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I33">
         <v>9</v>
@@ -2710,7 +2714,7 @@
         <v>50</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P33">
         <v>9</v>
@@ -2751,45 +2755,45 @@
         <v>5</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2810,7 +2814,7 @@
         <v>59</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2831,7 +2835,7 @@
         <v>59</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2854,7 +2858,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2875,7 +2879,7 @@
         <v>58</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -2896,7 +2900,7 @@
         <v>58</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2919,7 +2923,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2940,7 +2944,7 @@
         <v>57</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -2961,7 +2965,7 @@
         <v>57</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P37">
         <v>2</v>
@@ -2984,7 +2988,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -3005,7 +3009,7 @@
         <v>56</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -3026,7 +3030,7 @@
         <v>56</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P38">
         <v>3</v>
@@ -3049,7 +3053,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -3070,7 +3074,7 @@
         <v>55</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -3091,7 +3095,7 @@
         <v>55</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P39">
         <v>4</v>
@@ -3114,7 +3118,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -3135,7 +3139,7 @@
         <v>54</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -3156,7 +3160,7 @@
         <v>54</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P40">
         <v>5</v>
@@ -3179,7 +3183,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -3200,7 +3204,7 @@
         <v>53</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I41">
         <v>6</v>
@@ -3221,7 +3225,7 @@
         <v>53</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P41">
         <v>6</v>
@@ -3244,7 +3248,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3265,7 +3269,7 @@
         <v>52</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42">
         <v>7</v>
@@ -3286,7 +3290,7 @@
         <v>52</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P42">
         <v>7</v>
@@ -3309,7 +3313,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -3330,7 +3334,7 @@
         <v>51</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I43">
         <v>8</v>
@@ -3351,7 +3355,7 @@
         <v>51</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P43">
         <v>8</v>
@@ -3374,7 +3378,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -3395,7 +3399,7 @@
         <v>50</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I44">
         <v>9</v>
@@ -3416,7 +3420,7 @@
         <v>50</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P44">
         <v>9</v>
@@ -3457,45 +3461,45 @@
         <v>5</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3516,7 +3520,7 @@
         <v>59</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3537,7 +3541,7 @@
         <v>59</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3560,7 +3564,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3581,7 +3585,7 @@
         <v>58</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3602,7 +3606,7 @@
         <v>58</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -3625,7 +3629,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -3646,7 +3650,7 @@
         <v>57</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -3667,7 +3671,7 @@
         <v>57</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P48">
         <v>2</v>
@@ -3690,7 +3694,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -3711,7 +3715,7 @@
         <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -3732,7 +3736,7 @@
         <v>56</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P49">
         <v>3</v>
@@ -3755,7 +3759,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -3776,7 +3780,7 @@
         <v>55</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -3797,7 +3801,7 @@
         <v>55</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P50">
         <v>4</v>
@@ -3820,7 +3824,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -3841,7 +3845,7 @@
         <v>54</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I51">
         <v>5</v>
@@ -3862,7 +3866,7 @@
         <v>54</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P51">
         <v>5</v>
@@ -3885,7 +3889,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -3906,7 +3910,7 @@
         <v>53</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I52">
         <v>6</v>
@@ -3927,7 +3931,7 @@
         <v>53</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52">
         <v>6</v>
@@ -3950,7 +3954,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -3971,7 +3975,7 @@
         <v>52</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I53">
         <v>7</v>
@@ -3992,7 +3996,7 @@
         <v>52</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53">
         <v>7</v>
@@ -4015,7 +4019,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -4036,7 +4040,7 @@
         <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I54">
         <v>8</v>
@@ -4057,7 +4061,7 @@
         <v>51</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P54">
         <v>8</v>
@@ -4080,7 +4084,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -4101,7 +4105,7 @@
         <v>50</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I55">
         <v>9</v>
@@ -4122,7 +4126,7 @@
         <v>50</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P55">
         <v>9</v>
@@ -4163,45 +4167,45 @@
         <v>5</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4222,7 +4226,7 @@
         <v>59</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4243,7 +4247,7 @@
         <v>59</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -4266,7 +4270,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4287,7 +4291,7 @@
         <v>58</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -4308,7 +4312,7 @@
         <v>58</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -4331,7 +4335,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -4352,7 +4356,7 @@
         <v>57</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -4373,7 +4377,7 @@
         <v>57</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P59">
         <v>2</v>
@@ -4396,7 +4400,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -4417,7 +4421,7 @@
         <v>56</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -4438,7 +4442,7 @@
         <v>56</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P60">
         <v>3</v>
@@ -4461,7 +4465,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -4482,7 +4486,7 @@
         <v>55</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -4503,7 +4507,7 @@
         <v>55</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P61">
         <v>4</v>
@@ -4526,7 +4530,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -4547,7 +4551,7 @@
         <v>54</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I62">
         <v>5</v>
@@ -4568,7 +4572,7 @@
         <v>54</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P62">
         <v>5</v>
@@ -4591,7 +4595,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -4612,7 +4616,7 @@
         <v>53</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I63">
         <v>6</v>
@@ -4633,7 +4637,7 @@
         <v>53</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P63">
         <v>6</v>
@@ -4656,7 +4660,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -4677,7 +4681,7 @@
         <v>52</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I64">
         <v>7</v>
@@ -4698,7 +4702,7 @@
         <v>52</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P64">
         <v>7</v>
@@ -4721,7 +4725,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -4742,7 +4746,7 @@
         <v>51</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I65">
         <v>8</v>
@@ -4763,7 +4767,7 @@
         <v>51</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P65">
         <v>8</v>
@@ -4786,7 +4790,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>9</v>
@@ -4807,7 +4811,7 @@
         <v>50</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I66">
         <v>9</v>
@@ -4828,7 +4832,7 @@
         <v>50</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P66">
         <v>9</v>
@@ -4882,40 +4886,40 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -5588,45 +5592,45 @@
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5647,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5668,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -5691,7 +5695,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5712,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5733,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -5756,7 +5760,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5777,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5798,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -5821,7 +5825,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5842,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5863,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -5886,7 +5890,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5907,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -5928,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -5951,7 +5955,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5972,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -5993,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -6016,7 +6020,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6037,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -6058,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -6081,7 +6085,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6102,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -6123,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -6146,7 +6150,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6167,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -6188,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -6211,7 +6215,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6232,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -6253,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -6294,45 +6298,45 @@
         <v>5</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6353,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -6374,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -6397,7 +6401,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6418,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -6439,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -6462,7 +6466,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6483,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -6504,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -6527,7 +6531,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6548,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -6569,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -6592,7 +6596,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6613,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -6634,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -6657,7 +6661,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6678,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -6699,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -6722,7 +6726,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6743,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -6764,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -6787,7 +6791,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6808,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -6829,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -6852,7 +6856,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6873,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -6894,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -6917,7 +6921,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6938,7 +6942,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -6959,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -7000,45 +7004,45 @@
         <v>5</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7059,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -7080,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -7103,7 +7107,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7124,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -7145,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -7168,7 +7172,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7189,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -7210,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -7233,7 +7237,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7254,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -7275,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -7298,7 +7302,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7319,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -7340,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -7363,7 +7367,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7384,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -7405,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -7428,7 +7432,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7449,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -7470,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -7493,7 +7497,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7514,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -7535,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -7558,7 +7562,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7579,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7600,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -7623,7 +7627,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7644,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -7665,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -7706,45 +7710,45 @@
         <v>5</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -7765,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -7786,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -7809,7 +7813,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -7830,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -7851,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -7874,7 +7878,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -7895,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -7916,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -7939,7 +7943,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -7960,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -7981,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -8004,7 +8008,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8025,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8046,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -8069,7 +8073,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8090,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8111,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -8134,7 +8138,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8155,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -8176,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -8199,7 +8203,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8220,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -8241,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -8264,7 +8268,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8285,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8306,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -8329,7 +8333,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8350,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -8371,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -8412,45 +8416,45 @@
         <v>5</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -8471,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -8492,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -8515,7 +8519,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -8536,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -8557,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -8580,7 +8584,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8601,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -8622,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -8645,7 +8649,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8666,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -8687,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -8710,7 +8714,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8731,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -8752,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -8775,7 +8779,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8796,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -8817,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -8840,7 +8844,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8861,7 +8865,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -8882,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -8905,7 +8909,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8926,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -8947,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -8970,7 +8974,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8991,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -9012,7 +9016,7 @@
         <v>1</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -9035,7 +9039,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -9056,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -9077,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -9102,8 +9106,8 @@
   <conditionalFormatting sqref="A1:U66">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <color rgb="FF808080"/>
         <color rgb="FFFFD700"/>
       </colorScale>
@@ -9141,40 +9145,40 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -9847,45 +9851,45 @@
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>298.15</v>
@@ -9906,7 +9910,7 @@
         <v>298.15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13">
         <v>298.15</v>
@@ -9927,7 +9931,7 @@
         <v>298.15</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P13">
         <v>298.15</v>
@@ -9950,7 +9954,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>298.15</v>
@@ -9971,7 +9975,7 @@
         <v>298.15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>298.15</v>
@@ -9992,7 +9996,7 @@
         <v>298.15</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P14">
         <v>298.15</v>
@@ -10015,7 +10019,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>298.15</v>
@@ -10036,7 +10040,7 @@
         <v>298.15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>298.15</v>
@@ -10057,7 +10061,7 @@
         <v>298.15</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15">
         <v>298.15</v>
@@ -10080,7 +10084,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>298.15</v>
@@ -10101,7 +10105,7 @@
         <v>298.15</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>298.15</v>
@@ -10122,7 +10126,7 @@
         <v>298.15</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P16">
         <v>298.15</v>
@@ -10145,7 +10149,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>298.15</v>
@@ -10166,7 +10170,7 @@
         <v>298.15</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17">
         <v>298.15</v>
@@ -10187,7 +10191,7 @@
         <v>298.15</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17">
         <v>298.15</v>
@@ -10210,7 +10214,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>298.15</v>
@@ -10231,7 +10235,7 @@
         <v>298.15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>298.15</v>
@@ -10252,7 +10256,7 @@
         <v>298.15</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P18">
         <v>298.15</v>
@@ -10275,7 +10279,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>298.15</v>
@@ -10296,7 +10300,7 @@
         <v>298.15</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>298.15</v>
@@ -10317,7 +10321,7 @@
         <v>298.15</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P19">
         <v>298.15</v>
@@ -10340,7 +10344,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>298.15</v>
@@ -10361,7 +10365,7 @@
         <v>298.15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>298.15</v>
@@ -10382,7 +10386,7 @@
         <v>298.15</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20">
         <v>298.15</v>
@@ -10405,7 +10409,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>298.15</v>
@@ -10426,7 +10430,7 @@
         <v>298.15</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>298.15</v>
@@ -10447,7 +10451,7 @@
         <v>298.15</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P21">
         <v>298.15</v>
@@ -10470,7 +10474,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>298.15</v>
@@ -10491,7 +10495,7 @@
         <v>298.15</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22">
         <v>298.15</v>
@@ -10512,7 +10516,7 @@
         <v>298.15</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P22">
         <v>298.15</v>
@@ -10553,45 +10557,45 @@
         <v>5</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>298.15</v>
@@ -10612,7 +10616,7 @@
         <v>298.15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24">
         <v>298.15</v>
@@ -10633,7 +10637,7 @@
         <v>298.15</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P24">
         <v>298.15</v>
@@ -10656,7 +10660,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>298.15</v>
@@ -10677,7 +10681,7 @@
         <v>298.15</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25">
         <v>298.15</v>
@@ -10698,7 +10702,7 @@
         <v>298.15</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P25">
         <v>298.15</v>
@@ -10721,7 +10725,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>298.15</v>
@@ -10742,7 +10746,7 @@
         <v>298.15</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26">
         <v>298.15</v>
@@ -10763,7 +10767,7 @@
         <v>298.15</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P26">
         <v>298.15</v>
@@ -10786,7 +10790,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>298.15</v>
@@ -10807,7 +10811,7 @@
         <v>298.15</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I27">
         <v>298.15</v>
@@ -10828,7 +10832,7 @@
         <v>298.15</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P27">
         <v>298.15</v>
@@ -10851,7 +10855,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>298.15</v>
@@ -10872,7 +10876,7 @@
         <v>298.15</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I28">
         <v>298.15</v>
@@ -10893,7 +10897,7 @@
         <v>298.15</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P28">
         <v>298.15</v>
@@ -10916,7 +10920,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>298.15</v>
@@ -10937,7 +10941,7 @@
         <v>298.15</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I29">
         <v>298.15</v>
@@ -10958,7 +10962,7 @@
         <v>298.15</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P29">
         <v>298.15</v>
@@ -10981,7 +10985,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>298.15</v>
@@ -11002,7 +11006,7 @@
         <v>298.15</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I30">
         <v>298.15</v>
@@ -11023,7 +11027,7 @@
         <v>298.15</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P30">
         <v>298.15</v>
@@ -11046,7 +11050,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>298.15</v>
@@ -11067,7 +11071,7 @@
         <v>298.15</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I31">
         <v>298.15</v>
@@ -11088,7 +11092,7 @@
         <v>298.15</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P31">
         <v>298.15</v>
@@ -11111,7 +11115,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>298.15</v>
@@ -11132,7 +11136,7 @@
         <v>298.15</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I32">
         <v>298.15</v>
@@ -11153,7 +11157,7 @@
         <v>298.15</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P32">
         <v>298.15</v>
@@ -11176,7 +11180,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>298.15</v>
@@ -11197,7 +11201,7 @@
         <v>298.15</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I33">
         <v>298.15</v>
@@ -11218,7 +11222,7 @@
         <v>298.15</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P33">
         <v>298.15</v>
@@ -11259,45 +11263,45 @@
         <v>5</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>298.15</v>
@@ -11318,7 +11322,7 @@
         <v>298.15</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>298.15</v>
@@ -11339,7 +11343,7 @@
         <v>298.15</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P35">
         <v>298.15</v>
@@ -11362,7 +11366,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>298.15</v>
@@ -11383,7 +11387,7 @@
         <v>298.15</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I36">
         <v>298.15</v>
@@ -11404,7 +11408,7 @@
         <v>298.15</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P36">
         <v>298.15</v>
@@ -11427,7 +11431,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>298.15</v>
@@ -11448,7 +11452,7 @@
         <v>298.15</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I37">
         <v>298.15</v>
@@ -11469,7 +11473,7 @@
         <v>298.15</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P37">
         <v>298.15</v>
@@ -11492,7 +11496,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>298.15</v>
@@ -11513,7 +11517,7 @@
         <v>298.15</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I38">
         <v>298.15</v>
@@ -11534,7 +11538,7 @@
         <v>298.15</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P38">
         <v>298.15</v>
@@ -11557,7 +11561,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>298.15</v>
@@ -11578,7 +11582,7 @@
         <v>298.15</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I39">
         <v>298.15</v>
@@ -11599,7 +11603,7 @@
         <v>298.15</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P39">
         <v>298.15</v>
@@ -11622,7 +11626,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>298.15</v>
@@ -11643,7 +11647,7 @@
         <v>298.15</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I40">
         <v>298.15</v>
@@ -11664,7 +11668,7 @@
         <v>298.15</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P40">
         <v>298.15</v>
@@ -11687,7 +11691,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>298.15</v>
@@ -11708,7 +11712,7 @@
         <v>298.15</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I41">
         <v>298.15</v>
@@ -11729,7 +11733,7 @@
         <v>298.15</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P41">
         <v>298.15</v>
@@ -11752,7 +11756,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>298.15</v>
@@ -11773,7 +11777,7 @@
         <v>298.15</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42">
         <v>298.15</v>
@@ -11794,7 +11798,7 @@
         <v>298.15</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P42">
         <v>298.15</v>
@@ -11817,7 +11821,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>298.15</v>
@@ -11838,7 +11842,7 @@
         <v>298.15</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I43">
         <v>298.15</v>
@@ -11859,7 +11863,7 @@
         <v>298.15</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P43">
         <v>298.15</v>
@@ -11882,7 +11886,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>298.15</v>
@@ -11903,7 +11907,7 @@
         <v>298.15</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I44">
         <v>298.15</v>
@@ -11924,7 +11928,7 @@
         <v>298.15</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P44">
         <v>298.15</v>
@@ -11965,45 +11969,45 @@
         <v>5</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>298.15</v>
@@ -12024,7 +12028,7 @@
         <v>298.15</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46">
         <v>298.15</v>
@@ -12045,7 +12049,7 @@
         <v>298.15</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P46">
         <v>298.15</v>
@@ -12068,7 +12072,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>298.15</v>
@@ -12089,7 +12093,7 @@
         <v>298.15</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47">
         <v>298.15</v>
@@ -12110,7 +12114,7 @@
         <v>298.15</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P47">
         <v>298.15</v>
@@ -12133,7 +12137,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>298.15</v>
@@ -12154,7 +12158,7 @@
         <v>298.15</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I48">
         <v>298.15</v>
@@ -12175,7 +12179,7 @@
         <v>298.15</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P48">
         <v>298.15</v>
@@ -12198,7 +12202,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>298.15</v>
@@ -12219,7 +12223,7 @@
         <v>298.15</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I49">
         <v>298.15</v>
@@ -12240,7 +12244,7 @@
         <v>298.15</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P49">
         <v>298.15</v>
@@ -12263,7 +12267,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>298.15</v>
@@ -12284,7 +12288,7 @@
         <v>298.15</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I50">
         <v>298.15</v>
@@ -12305,7 +12309,7 @@
         <v>298.15</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P50">
         <v>298.15</v>
@@ -12328,7 +12332,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>298.15</v>
@@ -12349,7 +12353,7 @@
         <v>298.15</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I51">
         <v>298.15</v>
@@ -12370,7 +12374,7 @@
         <v>298.15</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P51">
         <v>298.15</v>
@@ -12393,7 +12397,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>298.15</v>
@@ -12414,7 +12418,7 @@
         <v>298.15</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I52">
         <v>298.15</v>
@@ -12435,7 +12439,7 @@
         <v>298.15</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52">
         <v>298.15</v>
@@ -12458,7 +12462,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>298.15</v>
@@ -12479,7 +12483,7 @@
         <v>298.15</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I53">
         <v>298.15</v>
@@ -12500,7 +12504,7 @@
         <v>298.15</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53">
         <v>298.15</v>
@@ -12523,7 +12527,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>298.15</v>
@@ -12544,7 +12548,7 @@
         <v>298.15</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I54">
         <v>298.15</v>
@@ -12565,7 +12569,7 @@
         <v>298.15</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P54">
         <v>298.15</v>
@@ -12588,7 +12592,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>298.15</v>
@@ -12609,7 +12613,7 @@
         <v>298.15</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I55">
         <v>298.15</v>
@@ -12630,7 +12634,7 @@
         <v>298.15</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P55">
         <v>298.15</v>
@@ -12671,45 +12675,45 @@
         <v>5</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>298.15</v>
@@ -12730,7 +12734,7 @@
         <v>298.15</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I57">
         <v>298.15</v>
@@ -12751,7 +12755,7 @@
         <v>298.15</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P57">
         <v>298.15</v>
@@ -12774,7 +12778,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>298.15</v>
@@ -12795,7 +12799,7 @@
         <v>298.15</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I58">
         <v>298.15</v>
@@ -12816,7 +12820,7 @@
         <v>298.15</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P58">
         <v>298.15</v>
@@ -12839,7 +12843,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>298.15</v>
@@ -12860,7 +12864,7 @@
         <v>298.15</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I59">
         <v>298.15</v>
@@ -12881,7 +12885,7 @@
         <v>298.15</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P59">
         <v>298.15</v>
@@ -12904,7 +12908,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>298.15</v>
@@ -12925,7 +12929,7 @@
         <v>298.15</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I60">
         <v>298.15</v>
@@ -12946,7 +12950,7 @@
         <v>298.15</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P60">
         <v>298.15</v>
@@ -12969,7 +12973,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>298.15</v>
@@ -12990,7 +12994,7 @@
         <v>298.15</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I61">
         <v>298.15</v>
@@ -13011,7 +13015,7 @@
         <v>298.15</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P61">
         <v>298.15</v>
@@ -13034,7 +13038,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>298.15</v>
@@ -13055,7 +13059,7 @@
         <v>298.15</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I62">
         <v>298.15</v>
@@ -13076,7 +13080,7 @@
         <v>298.15</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P62">
         <v>298.15</v>
@@ -13099,7 +13103,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>298.15</v>
@@ -13120,7 +13124,7 @@
         <v>298.15</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I63">
         <v>298.15</v>
@@ -13141,7 +13145,7 @@
         <v>298.15</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P63">
         <v>298.15</v>
@@ -13164,7 +13168,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>298.15</v>
@@ -13185,7 +13189,7 @@
         <v>298.15</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I64">
         <v>298.15</v>
@@ -13206,7 +13210,7 @@
         <v>298.15</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P64">
         <v>298.15</v>
@@ -13229,7 +13233,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>298.15</v>
@@ -13250,7 +13254,7 @@
         <v>298.15</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I65">
         <v>298.15</v>
@@ -13271,7 +13275,7 @@
         <v>298.15</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P65">
         <v>298.15</v>
@@ -13294,70 +13298,4341 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>298.15</v>
+      </c>
+      <c r="C66">
+        <v>298.15</v>
+      </c>
+      <c r="D66">
+        <v>298.15</v>
+      </c>
+      <c r="E66">
+        <v>298.15</v>
+      </c>
+      <c r="F66">
+        <v>298.15</v>
+      </c>
+      <c r="G66">
+        <v>298.15</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66">
+        <v>298.15</v>
+      </c>
+      <c r="J66">
+        <v>298.15</v>
+      </c>
+      <c r="K66">
+        <v>298.15</v>
+      </c>
+      <c r="L66">
+        <v>298.15</v>
+      </c>
+      <c r="M66">
+        <v>298.15</v>
+      </c>
+      <c r="N66">
+        <v>298.15</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66">
+        <v>298.15</v>
+      </c>
+      <c r="Q66">
+        <v>298.15</v>
+      </c>
+      <c r="R66">
+        <v>298.15</v>
+      </c>
+      <c r="S66">
+        <v>298.15</v>
+      </c>
+      <c r="T66">
+        <v>298.15</v>
+      </c>
+      <c r="U66">
+        <v>298.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:U66">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="273.15"/>
+        <cfvo type="num" val="298.15"/>
+        <cfvo type="num" val="358.15"/>
+        <color rgb="FF85C1E9"/>
+        <color rgb="FFE5E7E9"/>
+        <color rgb="FFE74C3C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" t="s">
+        <v>16</v>
+      </c>
+      <c r="T24" t="s">
+        <v>16</v>
+      </c>
+      <c r="U24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T26" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T28" t="s">
+        <v>16</v>
+      </c>
+      <c r="U28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S31" t="s">
+        <v>16</v>
+      </c>
+      <c r="T31" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>16</v>
+      </c>
+      <c r="T32" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" t="s">
+        <v>16</v>
+      </c>
+      <c r="U35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" t="s">
+        <v>16</v>
+      </c>
+      <c r="T36" t="s">
+        <v>16</v>
+      </c>
+      <c r="U36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" t="s">
+        <v>16</v>
+      </c>
+      <c r="S37" t="s">
+        <v>16</v>
+      </c>
+      <c r="T37" t="s">
+        <v>16</v>
+      </c>
+      <c r="U37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" t="s">
+        <v>16</v>
+      </c>
+      <c r="S38" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" t="s">
+        <v>16</v>
+      </c>
+      <c r="U38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" t="s">
+        <v>16</v>
+      </c>
+      <c r="S39" t="s">
+        <v>16</v>
+      </c>
+      <c r="T39" t="s">
+        <v>16</v>
+      </c>
+      <c r="U39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" t="s">
+        <v>16</v>
+      </c>
+      <c r="U40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" t="s">
+        <v>16</v>
+      </c>
+      <c r="U41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" t="s">
+        <v>16</v>
+      </c>
+      <c r="U42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" t="s">
+        <v>16</v>
+      </c>
+      <c r="T43" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" t="s">
+        <v>16</v>
+      </c>
+      <c r="S44" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" t="s">
+        <v>16</v>
+      </c>
+      <c r="U44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" t="s">
+        <v>16</v>
+      </c>
+      <c r="T46" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" t="s">
+        <v>16</v>
+      </c>
+      <c r="T47" t="s">
+        <v>16</v>
+      </c>
+      <c r="U47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P48" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" t="s">
+        <v>16</v>
+      </c>
+      <c r="T48" t="s">
+        <v>16</v>
+      </c>
+      <c r="U48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P49" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>16</v>
+      </c>
+      <c r="R49" t="s">
+        <v>16</v>
+      </c>
+      <c r="S49" t="s">
+        <v>16</v>
+      </c>
+      <c r="T49" t="s">
+        <v>16</v>
+      </c>
+      <c r="U49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>16</v>
+      </c>
+      <c r="R50" t="s">
+        <v>16</v>
+      </c>
+      <c r="S50" t="s">
+        <v>16</v>
+      </c>
+      <c r="T50" t="s">
+        <v>16</v>
+      </c>
+      <c r="U50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R51" t="s">
+        <v>16</v>
+      </c>
+      <c r="S51" t="s">
+        <v>16</v>
+      </c>
+      <c r="T51" t="s">
+        <v>16</v>
+      </c>
+      <c r="U51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" t="s">
+        <v>16</v>
+      </c>
+      <c r="T52" t="s">
+        <v>16</v>
+      </c>
+      <c r="U52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" t="s">
+        <v>16</v>
+      </c>
+      <c r="S53" t="s">
+        <v>16</v>
+      </c>
+      <c r="T53" t="s">
+        <v>16</v>
+      </c>
+      <c r="U53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" t="s">
+        <v>16</v>
+      </c>
+      <c r="S54" t="s">
+        <v>16</v>
+      </c>
+      <c r="T54" t="s">
+        <v>16</v>
+      </c>
+      <c r="U54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P55" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>16</v>
+      </c>
+      <c r="R55" t="s">
+        <v>16</v>
+      </c>
+      <c r="S55" t="s">
+        <v>16</v>
+      </c>
+      <c r="T55" t="s">
+        <v>16</v>
+      </c>
+      <c r="U55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P57" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" t="s">
+        <v>16</v>
+      </c>
+      <c r="S57" t="s">
+        <v>16</v>
+      </c>
+      <c r="T57" t="s">
+        <v>16</v>
+      </c>
+      <c r="U57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" t="s">
+        <v>16</v>
+      </c>
+      <c r="T58" t="s">
+        <v>16</v>
+      </c>
+      <c r="U58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" t="s">
+        <v>16</v>
+      </c>
+      <c r="S59" t="s">
+        <v>16</v>
+      </c>
+      <c r="T59" t="s">
+        <v>16</v>
+      </c>
+      <c r="U59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" t="s">
+        <v>16</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" t="s">
+        <v>16</v>
+      </c>
+      <c r="S60" t="s">
+        <v>16</v>
+      </c>
+      <c r="T60" t="s">
+        <v>16</v>
+      </c>
+      <c r="U60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>16</v>
+      </c>
+      <c r="R61" t="s">
+        <v>16</v>
+      </c>
+      <c r="S61" t="s">
+        <v>16</v>
+      </c>
+      <c r="T61" t="s">
+        <v>16</v>
+      </c>
+      <c r="U61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" t="s">
+        <v>16</v>
+      </c>
+      <c r="T62" t="s">
+        <v>16</v>
+      </c>
+      <c r="U62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>16</v>
+      </c>
+      <c r="R63" t="s">
+        <v>16</v>
+      </c>
+      <c r="S63" t="s">
+        <v>16</v>
+      </c>
+      <c r="T63" t="s">
+        <v>16</v>
+      </c>
+      <c r="U63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P64" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>16</v>
+      </c>
+      <c r="R64" t="s">
+        <v>16</v>
+      </c>
+      <c r="S64" t="s">
+        <v>16</v>
+      </c>
+      <c r="T64" t="s">
+        <v>16</v>
+      </c>
+      <c r="U64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>298.15</v>
-      </c>
-      <c r="C66">
-        <v>298.15</v>
-      </c>
-      <c r="D66">
-        <v>298.15</v>
-      </c>
-      <c r="E66">
-        <v>298.15</v>
-      </c>
-      <c r="F66">
-        <v>298.15</v>
-      </c>
-      <c r="G66">
-        <v>298.15</v>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>16</v>
+      </c>
+      <c r="R65" t="s">
+        <v>16</v>
+      </c>
+      <c r="S65" t="s">
+        <v>16</v>
+      </c>
+      <c r="T65" t="s">
+        <v>16</v>
+      </c>
+      <c r="U65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I66">
-        <v>298.15</v>
-      </c>
-      <c r="J66">
-        <v>298.15</v>
-      </c>
-      <c r="K66">
-        <v>298.15</v>
-      </c>
-      <c r="L66">
-        <v>298.15</v>
-      </c>
-      <c r="M66">
-        <v>298.15</v>
-      </c>
-      <c r="N66">
-        <v>298.15</v>
+        <v>66</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N66" t="s">
+        <v>16</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P66">
-        <v>298.15</v>
-      </c>
-      <c r="Q66">
-        <v>298.15</v>
-      </c>
-      <c r="R66">
-        <v>298.15</v>
-      </c>
-      <c r="S66">
-        <v>298.15</v>
-      </c>
-      <c r="T66">
-        <v>298.15</v>
-      </c>
-      <c r="U66">
-        <v>298.15</v>
+        <v>66</v>
+      </c>
+      <c r="P66" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" t="s">
+        <v>16</v>
+      </c>
+      <c r="T66" t="s">
+        <v>16</v>
+      </c>
+      <c r="U66" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:U66">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF6347"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pvmismatch/contrib/xlsio/example_workflow/ExcelLayoutFromPVMM.xlsx
+++ b/pvmismatch/contrib/xlsio/example_workflow/ExcelLayoutFromPVMM.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CellIndexes" sheetId="1" r:id="rId1"/>
     <sheet name="Irradiance" sheetId="2" r:id="rId2"/>
     <sheet name="CellTemp" sheetId="3" r:id="rId3"/>
-    <sheet name="ActiveBpd" sheetId="4" r:id="rId4"/>
+    <sheet name="BpdAndRbc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -17628,8 +17628,10 @@
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FFFFFFFF"/>
         <color rgb="FFFF6347"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF36C1FF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
